--- a/Real Options/strategy_report.xlsx
+++ b/Real Options/strategy_report.xlsx
@@ -126,6 +126,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="23660100" cy="10610850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,6 +529,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Real Options/strategy_report.xlsx
+++ b/Real Options/strategy_report.xlsx
@@ -145,6 +145,56 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6829425" cy="3771900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9372600" cy="5210175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>

--- a/Real Options/strategy_report.xlsx
+++ b/Real Options/strategy_report.xlsx
@@ -159,7 +159,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>28</row>
+      <row>108</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6829425" cy="3771900"/>
@@ -184,7 +184,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>48</row>
+      <row>208</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="9372600" cy="5210175"/>
